--- a/test/templates/test-insert-images.xlsx
+++ b/test/templates/test-insert-images.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\surveaexcel\NEWER\jduxlsx\test\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Systems\xlsx-template\test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091EB68F-6E6F-4788-8717-EFDFD0DF89D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8777CC5-5627-4E7E-8170-FF8D5D62B81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="init_rels" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>${image:imgB64}</t>
   </si>
@@ -50,7 +50,10 @@
     <t>${image:imgPath}</t>
   </si>
   <si>
-    <t>${test}</t>
+    <t>{test}</t>
+  </si>
+  <si>
+    <t>{table:imgArray.filename:image}</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -469,7 +472,7 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="1.7109375" customWidth="1"/>
@@ -761,10 +764,10 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
@@ -776,7 +779,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
